--- a/Data/Transitions/19361948Translation.xlsx
+++ b/Data/Transitions/19361948Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="671">
   <si>
     <t>id</t>
   </si>
@@ -91,7 +91,7 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
@@ -163,7 +163,7 @@
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9994900560938297}</t>
+    <t>{81.0: 0.9994958830448664}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -175,7 +175,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.996400449943757, 178.0: 0.008755573571139035}</t>
+    <t>{85.0: 0.9963619827194179, 178.0: 0.008801955990220049}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -205,7 +205,7 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9961333977767037}</t>
+    <t>{97.0: 0.9961451975586251}</t>
   </si>
   <si>
     <t>{98.0: 1.0}</t>
@@ -229,7 +229,7 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.013439522150323544}</t>
+    <t>{107.0: 1.0}</t>
   </si>
   <si>
     <t>{108.0: 1.0}</t>
@@ -247,10 +247,10 @@
     <t>{141.0: 0.9640418752844788}</t>
   </si>
   <si>
-    <t>{142.0: 1.0, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9989884514878192}</t>
+    <t>{142.0: 1.0, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9989927816014773}</t>
   </si>
   <si>
     <t>{145.0: 0.9987436257482817}</t>
@@ -271,7 +271,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528}</t>
+    <t>{152.0: 0.9995732878173672}</t>
   </si>
   <si>
     <t>{185.0: 1.0, 700.0: 0.015375789095560654}</t>
@@ -286,7 +286,7 @@
     <t>{165.0: 1.0}</t>
   </si>
   <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 1.0}</t>
@@ -307,7 +307,7 @@
     <t>{173.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 0.9934177215189873}</t>
+    <t>{174.0: 0.9934541792547835}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -319,19 +319,19 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.991244426428861}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.40698361611390244, 850.0: 0.001083483836576113}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5930163838860975, 850.0: 0.0015787457807283794}</t>
+    <t>{178.0: 0.99119804400978}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.40681549296858815, 850.0: 0.001085203048932546}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5931845070314118, 850.0: 0.0015823528030181042}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 1.0, 277.0: 0.0025256276927648194, 282.0: 0.0027799841143764893}</t>
+    <t>{182.0: 1.0, 277.0: 0.0025278810408921933, 282.0: 0.0028089887640449437}</t>
   </si>
   <si>
     <t>{183.0: 1.0}</t>
@@ -340,13 +340,13 @@
     <t>{184.0: 1.0}</t>
   </si>
   <si>
-    <t>{202.0: 0.2750805601777768, 307.0: 0.9844963966062609}</t>
+    <t>{202.0: 0.2751012314568136, 307.0: 0.9844963966062609}</t>
   </si>
   <si>
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9989618864007118}</t>
+    <t>{204.0: 0.9989611160581775}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -355,13 +355,13 @@
     <t>{206.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 0.5561023622047244, 477.0: 0.043134285620362055}</t>
+    <t>{207.0: 0.5561023622047244, 477.0: 0.043143765683135764}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
+    <t>{209.0: 0.9187771232698736}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
@@ -370,7 +370,7 @@
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9991899554475496, 681.0: 0.001962595243592704}</t>
+    <t>{212.0: 0.9991932230738201, 681.0: 0.001962595243592704}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -394,7 +394,7 @@
     <t>{221.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 503.0: 0.04728284124946513}</t>
+    <t>{222.0: 1.0, 503.0: 0.047506448839208945}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -406,7 +406,7 @@
     <t>{226.0: 0.7393333955746428}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -439,10 +439,13 @@
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8194220168160811}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18057798318391893}</t>
+    <t>{240.0: 1.0, 241.0: 0.8102185762263944}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.18978142377360568}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -460,7 +463,7 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9990227217200097}</t>
+    <t>{249.0: 0.9990134418547293}</t>
   </si>
   <si>
     <t>{250.0: 1.0, 581.0: 0.009343583678296866}</t>
@@ -499,7 +502,7 @@
     <t>{262.0: 0.9778834229020257}</t>
   </si>
   <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
@@ -508,7 +511,7 @@
     <t>{267.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
@@ -529,7 +532,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9974743723072352}</t>
+    <t>{277.0: 0.9974721189591078}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -541,7 +544,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{282.0: 0.9972200158856235}</t>
+    <t>{282.0: 0.9971910112359551}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -580,10 +583,10 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.12648512248974872}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.8735148775102513, 297.0: 0.004759120184553127}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.12648512248974872}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.8735148775102513, 297.0: 0.004786184211172354}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -595,7 +598,7 @@
     <t>{301.0: 0.9865262782189703}</t>
   </si>
   <si>
-    <t>{303.0: 1.0, 144.0: 0.00101154851218073}</t>
+    <t>{303.0: 1.0, 144.0: 0.0010072183985227463}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -610,7 +613,7 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 426.0: 0.03955197759887994, 204.0: 0.0010381135992881506}</t>
+    <t>{309.0: 1.0, 426.0: 0.039725786605730354, 204.0: 0.0010388839418224993}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
@@ -637,9 +640,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
@@ -652,16 +652,16 @@
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9989673688558447, 141.0: 0.0015172204521316948}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.9981033392723719, 907.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018966607276280246}</t>
+    <t>{402.0: 0.9989634083134653, 141.0: 0.0015172204521316948}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.9980654238480479, 907.0: 1.0}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019345761519521632}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -670,7 +670,7 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -700,7 +700,7 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 1.0, 212.0: 0.0008100445524503848}</t>
+    <t>{420.0: 1.0, 212.0: 0.0008067769261799112}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
@@ -715,7 +715,7 @@
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
+    <t>{426.0: 0.9602742133942697}</t>
   </si>
   <si>
     <t>{428.0: 0.9990803893018622}</t>
@@ -724,10 +724,10 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 431.0: 0.00019022256039566293, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.9998097774396043}</t>
+    <t>{430.0: 1.0, 431.0: 0.00012773023374632777, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.9998722697662537}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304}</t>
@@ -769,13 +769,13 @@
     <t>{476.0: 1.0}</t>
   </si>
   <si>
-    <t>{477.0: 0.08288882327934162}</t>
+    <t>{477.0: 0.0828872914271976}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -802,13 +802,13 @@
     <t>{489.0: 1.0}</t>
   </si>
   <si>
-    <t>{490.0: 1.0, 503.0: 0.007702182284980745}</t>
+    <t>{490.0: 1.0, 503.0: 0.007738607050730868}</t>
   </si>
   <si>
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 1.0, 97.0: 0.0038666022232962784, 696.0: 0.001007725898555593}</t>
+    <t>{492.0: 1.0, 97.0: 0.0038548024413748794, 696.0: 0.0009791122715404699}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -835,10 +835,10 @@
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 1.0, 534.0: 0.0004564646810453041, 695.0: 0.0018017591979570605}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9450149764655541}</t>
+    <t>{502.0: 1.0, 534.0: 0.0004564646810453041, 695.0: 0.0018018564173032106}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9447549441100602}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -874,7 +874,7 @@
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{536.0: 0.5244740231859167}</t>
+    <t>{536.0: 0.5216757544674189}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -943,7 +943,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9356220484668233, 752.0: 0.04612635356536104}</t>
+    <t>{580.0: 0.935665293499582, 752.0: 0.046284020554380495}</t>
   </si>
   <si>
     <t>{581.0: 0.9906564163217031}</t>
@@ -982,7 +982,7 @@
     <t>{593.0: 1.0, 171.0: 0.005747126436781609}</t>
   </si>
   <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077}</t>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674}</t>
   </si>
   <si>
     <t>{596.0: 1.0}</t>
@@ -1009,7 +1009,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012118805145684393}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012119753465340602}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
@@ -1081,7 +1081,7 @@
     <t>{627.0: 1.0}</t>
   </si>
   <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1102,7 +1102,7 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
@@ -1132,7 +1132,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 1.0, 174.0: 0.006582278481012658}</t>
+    <t>{687.0: 1.0, 174.0: 0.006545820745216516}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1153,10 +1153,10 @@
     <t>{694.0: 0.9935162094763093, 86.0: 0.10124404446797247}</t>
   </si>
   <si>
-    <t>{695.0: 0.9801570036886409}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9989922741014444}</t>
+    <t>{695.0: 0.9802098910129465}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9990208877284595}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
@@ -1171,7 +1171,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
+    <t>{702.0: 0.9986789960369881}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1240,7 +1240,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.953873646434639, 580.0: 0.06437795153317666}</t>
+    <t>{752.0: 0.9537159794456196, 580.0: 0.0643347065004179}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1282,7 +1282,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.00421455938697318}</t>
+    <t>{770.0: 1.0, 992.0: 0.004208110175975516}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1291,7 +1291,7 @@
     <t>{772.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.34352944792819384}</t>
+    <t>{992.0: 0.34353167279893726}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1309,10 +1309,10 @@
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0005099439061703213}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 1.0, 81.0: 0.000504116955133591}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
@@ -1327,7 +1327,7 @@
     <t>{787.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: -0.04411397150712322}</t>
+    <t>{788.0: -0.03853325046612803}</t>
   </si>
   <si>
     <t>{789.0: 1.0}</t>
@@ -1345,13 +1345,13 @@
     <t>{834.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 1.0, 836.0: 0.0014807502467917078}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9985192497532083}</t>
-  </si>
-  <si>
-    <t>{837.0: 1.0, 536.0: 0.4755259768140833, 486.0: 1.0}</t>
+    <t>{835.0: 1.0, 836.0: 0.0014044943820224719}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9985955056179775}</t>
+  </si>
+  <si>
+    <t>{837.0: 1.0, 536.0: 0.4783242455325811, 486.0: 1.0}</t>
   </si>
   <si>
     <t>{838.0: 1.0}</t>
@@ -1369,7 +1369,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1381,25 +1381,25 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 1.0, 634.0: 0.9963536918869644}</t>
+    <t>{848.0: 1.0, 634.0: 0.9964896884598509}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.0022079438801396994}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 202.0: 0.7249194398222232, 680.0: 0.002957121734844751, 477.0: 0.8739768911002963, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.0017019959771004177}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0022801572723862235}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 202.0: 0.7248987685431864, 680.0: 0.002957121734844751, 477.0: 0.8739689428896666, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.0015838732901367891}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1408,7 +1408,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 1.0, 695.0: 0.01804123711340206}</t>
+    <t>{857.0: 1.0, 695.0: 0.017988252569750368}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1453,16 +1453,16 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1471,7 +1471,7 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5308672831792052}</t>
+    <t>{788.0: 0.5280298321939093}</t>
   </si>
   <si>
     <t>{909.0: 1.0}</t>
@@ -1498,7 +1498,7 @@
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1507,7 +1507,7 @@
     <t>{921.0: 1.0}</t>
   </si>
   <si>
-    <t>{922.0: 0.9965801756052919}</t>
+    <t>{922.0: 0.9965078673810798}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1534,7 +1534,7 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 1.0, 249.0: 0.0009772782799902272}</t>
+    <t>{933.0: 1.0, 249.0: 0.000986558145270687}</t>
   </si>
   <si>
     <t>{934.0: 1.0}</t>
@@ -1546,7 +1546,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
   </si>
   <si>
     <t>{940.0: 1.0, 785.0: 0.004104903078677309}</t>
@@ -1555,7 +1555,7 @@
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
+    <t>{942.0: 0.9907869481765835}</t>
   </si>
   <si>
     <t>{943.0: 1.0}</t>
@@ -1564,7 +1564,7 @@
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 152.0: 0.0004351136734471881}</t>
+    <t>{971.0: 1.0, 152.0: 0.0004267121826328142}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -1579,7 +1579,7 @@
     <t>{975.0: 1.0}</t>
   </si>
   <si>
-    <t>{976.0: 0.9982980040228996}</t>
+    <t>{976.0: 0.9984161267098632}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
@@ -1603,7 +1603,7 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.6522559926848331}</t>
+    <t>{992.0: 0.6522602170250872}</t>
   </si>
   <si>
     <t>{9.0: 0.9995276334435521, 208.0: 0.00047236655644780347}</t>
@@ -1642,9 +1642,6 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: 1.0}</t>
-  </si>
-  <si>
     <t>{109.0: 0.7842488823565436, 110.0: 0.21575111764345642}</t>
   </si>
   <si>
@@ -1654,7 +1651,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273635}</t>
+    <t>{142.0: 0.9847119224187109, 44.0: 0.015288077581289219}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1672,7 +1669,7 @@
     <t>{185.0: 0.9770713601532567, 700.0: 0.022928639846743294}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589453, 893.0: 0.0007695267410542517}</t>
+    <t>{166.0: 0.9992208804051423, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{171.0: 1.0}</t>
@@ -1687,13 +1684,13 @@
     <t>{178.0: 1.0}</t>
   </si>
   <si>
-    <t>{179.0: 0.5993060590489727, 180.0: 0.40051465954568005, 850.0: 0.00017928140534721575}</t>
+    <t>{179.0: 0.6003432513722297, 180.0: 0.39947793129057646, 850.0: 0.0001788173371936332}</t>
   </si>
   <si>
     <t>{180.0: 0.9995525727069352, 850.0: 0.0004474272930648769}</t>
   </si>
   <si>
-    <t>{182.0: 0.9971718123968887, 277.0: 0.0020032995522036297, 282.0: 0.0008248880509073768}</t>
+    <t>{182.0: 0.9971607713237907, 277.0: 0.0020111203123151546, 282.0: 0.0008281083638944754}</t>
   </si>
   <si>
     <t>{202.0: 0.8125259307831424, 307.0: 0.18747406921685753}</t>
@@ -1702,7 +1699,7 @@
     <t>{204.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 0.4623000761614623, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.4480062548866302, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.998085701663967, 688.0: 0.0019142983360329847}</t>
@@ -1714,19 +1711,19 @@
     <t>{212.0: 0.9935532802427001, 681.0: 0.006446719757299962}</t>
   </si>
   <si>
-    <t>{222.0: 0.8492496589358798, 503.0: 0.15075034106412005}</t>
+    <t>{222.0: 0.8489405331510597, 503.0: 0.15105946684894053}</t>
   </si>
   <si>
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.99756178276281, 297.0: 0.00018045618356780216, 844.0: 0.002257761053621825}</t>
+    <t>{227.0: 0.9975636241524384, 297.0: 0.0001786147939395593, 844.0: 0.002257761053621825}</t>
   </si>
   <si>
     <t>{232.0: 0.9901095019427764, 145.0: 0.0010008242081714354, 301.0: 0.008889673849052161}</t>
   </si>
   <si>
-    <t>{240.0: 0.23802619996893287, 241.0: 0.7619738000310672}</t>
+    <t>{240.0: 0.2380261999689329, 241.0: 0.7619738000310672}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -1741,10 +1738,10 @@
     <t>{262.0: 1.0}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492866}</t>
-  </si>
-  <si>
-    <t>{270.0: 0.9873640905083751, 479.0: 0.012356147657862113, 942.0: 0.0002797618337629159}</t>
+    <t>{263.0: 0.998602427363001, 595.0: 0.0013975726369988967}</t>
+  </si>
+  <si>
+    <t>{270.0: 0.9873640905083751, 479.0: 0.012350620848352221, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{277.0: 1.0}</t>
@@ -1753,19 +1750,19 @@
     <t>{282.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9603432910825849, 298.0: 0.0396567089174152}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9860774179938827, 297.0: 0.013922582006117503}</t>
+    <t>{297.0: 0.9603432320318249, 298.0: 0.039656767968174994}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.9860788863109051, 297.0: 0.013921113689095122}</t>
   </si>
   <si>
     <t>{301.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9976967370441459, 144.0: 0.0023032629558541267}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9257801422662858, 426.0: 0.0731432659158121, 204.0: 0.001076591817902184}</t>
+    <t>{303.0: 0.997686969930609, 144.0: 0.002313030069390902}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.928113721687963, 426.0: 0.07086273685860801, 204.0: 0.0010235414534288639}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
@@ -1783,10 +1780,10 @@
     <t>{404.0: 0.7774172615184943, 907.0: 0.22258273848150553}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484793, 404.0: 0.0024965955515206537}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.9975391498881433, 404.0: 0.0024608501118568234}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917456, 403.0: 0.056861742908254534}</t>
   </si>
   <si>
     <t>{420.0: 0.9998354992597468, 212.0: 0.00016450074025333114}</t>
@@ -1798,7 +1795,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 0.9996247593749247, 431.0: 0.00018684574941587383, 783.0: 0.00018839487565938207}</t>
+    <t>{430.0: 0.999281049806884, 431.0: 0.00035663135253636115, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -1816,13 +1813,13 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9778597785977857, 942.0: 0.02214022140221402}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869783, 503.0: 0.022113022113022112}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.9974491964968968, 97.0: 0.002040642802482782, 696.0: 0.0005101607006206955}</t>
+    <t>{479.0: 0.9774223894637818, 942.0: 0.022577610536218252}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294478, 503.0: 0.022085889570552155}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9974491964968965, 97.0: 0.002040642802482782, 696.0: 0.0005101607006206955}</t>
   </si>
   <si>
     <t>{502.0: 0.9978808570755827, 534.0: 0.0009418412997409935, 695.0: 0.0011773016246762421}</t>
@@ -1855,7 +1852,7 @@
     <t>{565.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9881828924643214, 752.0: 0.011817107535678575}</t>
+    <t>{580.0: 0.9884629037983671, 752.0: 0.011537096201632943}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -1873,7 +1870,7 @@
     <t>{595.0: 0.9991012043861226, 402.0: 0.0008987956138774044}</t>
   </si>
   <si>
-    <t>{604.0: 0.996050552922591, 852.0: 0.001172884671243, 922.0: 0.002776562406166162}</t>
+    <t>{604.0: 0.996050552922591, 852.0: 0.0011727912431587178, 922.0: 0.002776655834250445}</t>
   </si>
   <si>
     <t>{605.0: 0.974858757062147, 475.0: 0.02514124293785311}</t>
@@ -1897,7 +1894,7 @@
     <t>{681.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.997153492445807, 174.0: 0.0028465075541931244}</t>
+    <t>{687.0: 0.9971296091852504, 174.0: 0.002870390814749393}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972787, 208.0: 0.042517006802721094}</t>
@@ -1924,7 +1921,7 @@
     <t>{734.0: 0.27414480841290945, 73.0: 0.13368790039888795, 888.0: 0.5921672911882025}</t>
   </si>
   <si>
-    <t>{752.0: 0.8066928545138229, 580.0: 0.1933071454861769}</t>
+    <t>{752.0: 0.8066160041894901, 580.0: 0.19338399581050952}</t>
   </si>
   <si>
     <t>{758.0: 0.9991689750692521, 583.0: 0.0008310249307479224}</t>
@@ -1933,7 +1930,7 @@
     <t>{762.0: 0.95090299556613, 141.0: 0.049097004433870446}</t>
   </si>
   <si>
-    <t>{770.0: 0.980357142857143, 992.0: 0.019642857142857142}</t>
+    <t>{770.0: 0.9801712483100494, 992.0: 0.01982875168995043}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
@@ -1972,16 +1969,16 @@
     <t>{850.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.989914662529092, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8498905405759649, 202.0: 0.06322593160796895, 680.0: 7.416687140507294e-05, 477.0: 0.08456974516110818, 307.0: 8.840671277534608e-05, 207.0: 0.0021512090707774324}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.9973455598455601, 976.0: 0.0026544401544401543}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9927664599940953, 695.0: 0.007233540005904928}</t>
+    <t>{852.0: 0.9898358092259579, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8498905405759649, 202.0: 0.06322593160796895, 680.0: 7.416687140507294e-05, 477.0: 0.08463625823252664, 307.0: 8.840671277534608e-05, 207.0: 0.0020846959993589646}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.9973352713178296, 976.0: 0.0026647286821705426}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9926963779997019, 695.0: 0.007303622000298106}</t>
   </si>
   <si>
     <t>{886.0: 1.0}</t>
@@ -2005,13 +2002,13 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9939789262418463, 297.0: 0.006021073758153537}</t>
+    <t>{919.0: 0.994110429447853, 297.0: 0.00588957055214724}</t>
   </si>
   <si>
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 0.9990142927550515, 249.0: 0.0009857072449482504}</t>
+    <t>{933.0: 0.9990069513406155, 249.0: 0.0009930486593843098}</t>
   </si>
   <si>
     <t>{937.0: 0.9949109414758268, 85.0: 0.005089058524173028}</t>
@@ -3160,7 +3157,7 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>542</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3182,7 +3179,7 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3204,7 +3201,7 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3215,7 +3212,7 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3226,7 +3223,7 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3237,7 +3234,7 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3248,7 +3245,7 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3281,7 +3278,7 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3314,7 +3311,7 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3325,7 +3322,7 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3369,7 +3366,7 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3413,7 +3410,7 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3446,7 +3443,7 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3457,7 +3454,7 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3490,7 +3487,7 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3501,7 +3498,7 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3512,7 +3509,7 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3534,7 +3531,7 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3567,7 +3564,7 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3589,7 +3586,7 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3622,7 +3619,7 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3633,7 +3630,7 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3644,7 +3641,7 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3677,7 +3674,7 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3765,7 +3762,7 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3798,7 +3795,7 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3809,7 +3806,7 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3864,7 +3861,7 @@
         <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3930,7 +3927,7 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3941,12 +3938,12 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
@@ -3957,7 +3954,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -3968,7 +3965,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -3979,7 +3976,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -3990,7 +3987,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -4001,40 +3998,40 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>572</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>150</v>
+        <v>572</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -4045,7 +4042,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -4056,7 +4053,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -4067,7 +4064,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -4078,7 +4075,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4089,7 +4086,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4100,7 +4097,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4111,7 +4108,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -4122,7 +4119,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4133,40 +4130,40 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>574</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>574</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4177,29 +4174,29 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>576</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>575</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4210,7 +4207,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4221,7 +4218,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4232,7 +4229,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4243,7 +4240,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4254,29 +4251,29 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>577</v>
+        <v>171</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>172</v>
+        <v>576</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4287,7 +4284,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4298,29 +4295,29 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>578</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>176</v>
+        <v>577</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4331,7 +4328,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4342,7 +4339,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4353,7 +4350,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4364,7 +4361,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4375,7 +4372,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4386,7 +4383,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4397,7 +4394,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4408,7 +4405,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4419,7 +4416,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4430,7 +4427,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4441,40 +4438,40 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>579</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>579</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4485,40 +4482,40 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>581</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>194</v>
+        <v>581</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4529,7 +4526,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4540,7 +4537,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4551,29 +4548,29 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>583</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>199</v>
+        <v>582</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4584,29 +4581,29 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>567</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>202</v>
+        <v>566</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4617,7 +4614,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4628,7 +4625,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4639,7 +4636,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4650,7 +4647,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4678,7 +4675,7 @@
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4689,7 +4686,7 @@
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4711,7 +4708,7 @@
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4722,7 +4719,7 @@
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4733,7 +4730,7 @@
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4744,7 +4741,7 @@
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4777,7 +4774,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4887,7 +4884,7 @@
         <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4942,7 +4939,7 @@
         <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4953,7 +4950,7 @@
         <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4975,7 +4972,7 @@
         <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4986,7 +4983,7 @@
         <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4997,7 +4994,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -5096,7 +5093,7 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -5118,7 +5115,7 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -5140,7 +5137,7 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5162,7 +5159,7 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5261,7 +5258,7 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5283,7 +5280,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5382,7 +5379,7 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5393,7 +5390,7 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5437,7 +5434,7 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5470,7 +5467,7 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5503,7 +5500,7 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5525,7 +5522,7 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5569,7 +5566,7 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5646,7 +5643,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5679,7 +5676,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5690,7 +5687,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5778,7 +5775,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5789,7 +5786,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5811,7 +5808,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5866,7 +5863,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5910,7 +5907,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5921,7 +5918,7 @@
         <v>322</v>
       </c>
       <c r="C321" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -6020,7 +6017,7 @@
         <v>331</v>
       </c>
       <c r="C330" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -6031,7 +6028,7 @@
         <v>332</v>
       </c>
       <c r="C331" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -6075,7 +6072,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6086,7 +6083,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6284,7 +6281,7 @@
         <v>355</v>
       </c>
       <c r="C354" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6361,7 +6358,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6394,7 +6391,7 @@
         <v>365</v>
       </c>
       <c r="C364" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6405,7 +6402,7 @@
         <v>366</v>
       </c>
       <c r="C365" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6471,7 +6468,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6482,7 +6479,7 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6493,7 +6490,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6515,7 +6512,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6537,7 +6534,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6548,7 +6545,7 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6559,7 +6556,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6592,7 +6589,7 @@
         <v>383</v>
       </c>
       <c r="C382" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -6614,7 +6611,7 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6702,7 +6699,7 @@
         <v>393</v>
       </c>
       <c r="C392" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -6867,7 +6864,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -6922,7 +6919,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -6966,7 +6963,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7021,7 +7018,7 @@
         <v>422</v>
       </c>
       <c r="C421" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7054,7 +7051,7 @@
         <v>425</v>
       </c>
       <c r="C424" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -7120,7 +7117,7 @@
         <v>431</v>
       </c>
       <c r="C430" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -7131,7 +7128,7 @@
         <v>432</v>
       </c>
       <c r="C431" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -7153,7 +7150,7 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7186,7 +7183,7 @@
         <v>437</v>
       </c>
       <c r="C436" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -7230,7 +7227,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7252,7 +7249,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7263,7 +7260,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7274,7 +7271,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7340,7 +7337,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7384,7 +7381,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7406,7 +7403,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7428,7 +7425,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -7439,7 +7436,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -7450,7 +7447,7 @@
         <v>461</v>
       </c>
       <c r="C460" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -7483,7 +7480,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7571,7 +7568,7 @@
         <v>472</v>
       </c>
       <c r="C471" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -7593,7 +7590,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -7648,7 +7645,7 @@
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -7670,7 +7667,7 @@
         <v>481</v>
       </c>
       <c r="C480" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -7681,7 +7678,7 @@
         <v>482</v>
       </c>
       <c r="C481" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -7714,7 +7711,7 @@
         <v>485</v>
       </c>
       <c r="C484" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -7758,7 +7755,7 @@
         <v>489</v>
       </c>
       <c r="C488" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -7802,7 +7799,7 @@
         <v>493</v>
       </c>
       <c r="C492" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -7813,7 +7810,7 @@
         <v>494</v>
       </c>
       <c r="C493" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -7846,7 +7843,7 @@
         <v>497</v>
       </c>
       <c r="C496" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -7945,7 +7942,7 @@
         <v>506</v>
       </c>
       <c r="C505" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -7989,7 +7986,7 @@
         <v>510</v>
       </c>
       <c r="C509" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8000,7 +7997,7 @@
         <v>511</v>
       </c>
       <c r="C510" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -8022,7 +8019,7 @@
         <v>513</v>
       </c>
       <c r="C512" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8055,7 +8052,7 @@
         <v>516</v>
       </c>
       <c r="C515" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -8110,7 +8107,7 @@
         <v>521</v>
       </c>
       <c r="C520" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -8143,7 +8140,7 @@
         <v>524</v>
       </c>
       <c r="C523" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -8198,7 +8195,7 @@
         <v>529</v>
       </c>
       <c r="C528" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
